--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/99/word_level_predictions_99.xlsx
@@ -814,208 +814,208 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4714,210 +4714,210 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4974,208 +4974,208 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K91" t="b">
-        <v>1</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="G91" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6482,262 +6482,262 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="I117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="I118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>21</v>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="I120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>3</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>22</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>3</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>23</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>3</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>recommended</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>24</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10330,158 +10330,158 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C191" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E191" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F191" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G191" t="b">
-        <v>1</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I191" t="b">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr">
+      <c r="I191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K191" t="b">
-        <v>1</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
+      <c r="I192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>10</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G192" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I192" t="b">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K192" t="b">
-        <v>1</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>6</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>11</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/99/word_level_predictions_99.xlsx
@@ -814,208 +814,208 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>obstacle</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>avoidance</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>obstacle</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>avoidance</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4714,210 +4714,210 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>2</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>20</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>2</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>21</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>2</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>22</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>2</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>23</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,208 +4974,208 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>2</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" t="n">
         <v>25</v>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>2</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" t="n">
         <v>26</v>
       </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>2</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>27</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" t="n">
         <v>2</v>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" t="n">
         <v>28</v>
       </c>
-      <c r="E91" s="2" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F91" s="2" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G91" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91" s="2" t="inlineStr">
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6482,262 +6482,262 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>3</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>20</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>3</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>21</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>3</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>22</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>3</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>23</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>3</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>24</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10330,158 +10330,158 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" t="n">
         <v>6</v>
       </c>
-      <c r="B191" s="2" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C191" s="2" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D191" s="2" t="n">
+      <c r="D191" t="n">
         <v>9</v>
       </c>
-      <c r="E191" s="2" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F191" s="2" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G191" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H191" s="2" t="inlineStr">
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L191" s="2" t="inlineStr">
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K191" t="b">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" t="n">
         <v>6</v>
       </c>
-      <c r="B192" s="2" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C192" s="2" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D192" s="2" t="n">
+      <c r="D192" t="n">
         <v>10</v>
       </c>
-      <c r="E192" s="2" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F192" s="2" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G192" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" s="2" t="inlineStr">
+      <c r="G192" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L192" s="2" t="inlineStr">
+      <c r="I192" t="b">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K192" t="b">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>6</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>11</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
